--- a/xlsx/常春藤盟校_intext.xlsx
+++ b/xlsx/常春藤盟校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
   <si>
     <t>常春藤盟校</t>
   </si>
@@ -29,19 +29,19 @@
     <t>NCAA</t>
   </si>
   <si>
-    <t>政策_政策_美國_常春藤盟校</t>
+    <t>政策_政策_美国_常春藤盟校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>新澤西</t>
+    <t>新泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%A5%96%E5%AD%A6%E9%87%91</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0%E5%AD%A6%E9%99%A2</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>達特茅斯學院</t>
+    <t>达特茅斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯頓大學</t>
+    <t>普林斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立大學</t>
+    <t>私立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E5%B7%9E</t>
@@ -167,15 +167,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B4%9B%E5%A8%81%E9%A0%93%E6%96%AF</t>
   </si>
   <si>
-    <t>普洛威頓斯</t>
+    <t>普洛威顿斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哥伦比亚大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
@@ -191,15 +188,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%96%A9%E5%8D%A1</t>
   </si>
   <si>
-    <t>伊薩卡</t>
+    <t>伊萨卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>达特茅斯学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
@@ -227,15 +218,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>劍橋 (美國)</t>
+    <t>剑桥 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>普林斯顿大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>耶鲁大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
   </si>
   <si>
@@ -275,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -287,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>英國聖公會</t>
+    <t>英国圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%80%81%E6%95%99%E4%BC%9A</t>
@@ -299,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -323,19 +308,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>先驅論壇報</t>
+    <t>先驱论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4</t>
@@ -359,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>運動</t>
+    <t>运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -389,9 +371,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -443,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>國王學院</t>
+    <t>国王学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E6%96%B0%E6%95%99%E5%BE%92</t>
   </si>
   <si>
-    <t>白人盎格魯-撒克遜新教徒</t>
+    <t>白人盎格鲁-撒克逊新教徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E9%98%B6%E5%B1%82</t>
@@ -485,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
@@ -563,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西方學院</t>
+    <t>西方学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
@@ -671,19 +650,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E9%A0%93%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>華頓商學院</t>
+    <t>华顿商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -707,9 +686,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
   </si>
   <si>
-    <t>纽约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF</t>
   </si>
   <si>
@@ -749,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA%E7%AC%AC%E4%B8%80%E7%BA%A7%E5%88%AB</t>
@@ -887,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%A4%A7%E5%AD%A6</t>
@@ -1025,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1049,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>堪薩斯州立大學</t>
+    <t>堪萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1067,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝勒大學</t>
+    <t>贝勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬州立大學</t>
+    <t>奥克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%86%9C%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
@@ -1085,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6%E5%A5%A5%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
@@ -1103,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋十二校聯盟</t>
+    <t>太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
@@ -1121,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -1133,19 +1109,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡州立大學</t>
+    <t>俄勒冈州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -1157,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -1187,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西大學</t>
+    <t>田纳西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -1199,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞大學</t>
+    <t>乔治亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1217,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那州立大學</t>
+    <t>路易斯安那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -1229,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%A6</t>
@@ -1241,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅萊納大學</t>
+    <t>南卡罗莱纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%A4%A7%E5%AD%A6</t>
@@ -1283,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -1295,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普羅維登斯學院</t>
+    <t>普罗维登斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -1325,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學</t>
+    <t>西弗吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E7%A2%97</t>
@@ -1379,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -1391,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>楊百翰大學</t>
+    <t>杨百翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%A6</t>
@@ -1403,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多學院</t>
+    <t>科罗拉多学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>丹佛大學</t>
+    <t>丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1421,19 +1397,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北密歇根大學</t>
+    <t>北密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蘇必利爾湖州立大學</t>
+    <t>苏必利尔湖州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -1457,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多州立大學</t>
+    <t>科罗拉多州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%AC%A7%E6%96%87%E5%88%86%E6%A0%A1</t>
@@ -1487,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -1499,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學洛杉磯分校</t>
+    <t>加州州立大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A4%A7%E5%AD%A6</t>
@@ -1523,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
@@ -1553,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E5%88%86%E5%8D%80</t>
   </si>
   <si>
-    <t>東南分區</t>
+    <t>东南分区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%A6</t>
@@ -1577,13 +1553,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E9%81%8B%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>大學運動聯盟</t>
+    <t>大学运动联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2726,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
         <v>14</v>
@@ -2752,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -2781,10 +2757,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2810,10 +2786,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2839,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -2868,10 +2844,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2897,10 +2873,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2926,10 +2902,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
         <v>21</v>
@@ -2955,10 +2931,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2984,10 +2960,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3013,10 +2989,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
         <v>14</v>
@@ -3042,10 +3018,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3129,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3158,10 +3134,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3187,10 +3163,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="G43" t="n">
         <v>17</v>
@@ -3216,10 +3192,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3245,10 +3221,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3274,10 +3250,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3303,10 +3279,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3332,10 +3308,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3361,10 +3337,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3390,10 +3366,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3419,10 +3395,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3448,10 +3424,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -3477,10 +3453,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3506,10 +3482,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3535,10 +3511,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3564,10 +3540,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3593,10 +3569,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>38</v>
@@ -3622,10 +3598,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3651,10 +3627,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3680,10 +3656,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3709,10 +3685,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3738,10 +3714,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3767,10 +3743,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3796,10 +3772,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3825,10 +3801,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3854,10 +3830,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3883,10 +3859,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3912,10 +3888,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3941,10 +3917,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3970,10 +3946,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3999,10 +3975,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4028,10 +4004,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4057,10 +4033,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>23</v>
@@ -4086,10 +4062,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4115,10 +4091,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4144,10 +4120,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4173,10 +4149,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4202,10 +4178,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4231,10 +4207,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4260,10 +4236,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4289,10 +4265,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4318,10 +4294,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4347,10 +4323,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4376,10 +4352,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4405,10 +4381,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4434,10 +4410,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4463,10 +4439,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4492,10 +4468,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4521,10 +4497,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4550,10 +4526,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4579,10 +4555,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4608,10 +4584,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4637,10 +4613,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4666,10 +4642,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -4695,10 +4671,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4724,10 +4700,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4753,10 +4729,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4782,10 +4758,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4811,10 +4787,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4840,10 +4816,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4869,10 +4845,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4898,10 +4874,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4927,10 +4903,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4956,10 +4932,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4985,10 +4961,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5014,10 +4990,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5043,10 +5019,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5072,10 +5048,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5101,10 +5077,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5130,10 +5106,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5159,10 +5135,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5188,10 +5164,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5217,10 +5193,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5246,10 +5222,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5275,10 +5251,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5304,10 +5280,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5333,10 +5309,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5362,10 +5338,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5391,10 +5367,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="G119" t="n">
         <v>9</v>
@@ -5420,10 +5396,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
@@ -5449,10 +5425,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5478,10 +5454,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5507,10 +5483,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5536,10 +5512,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -5597,7 +5573,7 @@
         <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G126" t="n">
         <v>19</v>
@@ -5652,10 +5628,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G128" t="n">
         <v>11</v>
@@ -5681,10 +5657,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F129" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G129" t="n">
         <v>31</v>
@@ -5710,10 +5686,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5768,10 +5744,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5797,10 +5773,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -5826,10 +5802,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5855,10 +5831,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5884,10 +5860,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5913,10 +5889,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5942,10 +5918,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5971,10 +5947,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6000,10 +5976,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6029,10 +6005,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -6058,10 +6034,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6087,10 +6063,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6116,10 +6092,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6145,10 +6121,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6174,10 +6150,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6203,10 +6179,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6232,10 +6208,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6261,10 +6237,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6290,10 +6266,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6319,10 +6295,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6348,10 +6324,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6377,10 +6353,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6406,10 +6382,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6435,10 +6411,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6464,10 +6440,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F156" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -6493,10 +6469,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -6522,10 +6498,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F158" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6551,10 +6527,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6580,10 +6556,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6609,10 +6585,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -6638,10 +6614,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G162" t="n">
         <v>14</v>
@@ -6667,10 +6643,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6696,10 +6672,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G164" t="n">
         <v>7</v>
@@ -6725,10 +6701,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6754,10 +6730,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -6783,10 +6759,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6812,10 +6788,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F168" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -6841,10 +6817,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6870,10 +6846,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6899,10 +6875,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -6928,10 +6904,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6957,10 +6933,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -6986,10 +6962,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -7015,10 +6991,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -7044,10 +7020,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7073,10 +7049,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7102,10 +7078,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7131,10 +7107,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7160,10 +7136,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -7189,10 +7165,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7218,10 +7194,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7247,10 +7223,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7276,10 +7252,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G184" t="n">
         <v>6</v>
@@ -7305,10 +7281,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7334,10 +7310,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7363,10 +7339,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7392,10 +7368,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7421,10 +7397,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7450,10 +7426,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G190" t="n">
         <v>7</v>
@@ -7479,10 +7455,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7508,10 +7484,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7537,10 +7513,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -7566,10 +7542,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>6</v>
@@ -7595,10 +7571,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -7624,10 +7600,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>5</v>
@@ -7653,10 +7629,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7682,10 +7658,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>6</v>
@@ -7711,10 +7687,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7740,10 +7716,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -7769,10 +7745,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7798,10 +7774,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -7827,10 +7803,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7856,10 +7832,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -7885,10 +7861,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -7914,10 +7890,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -7943,10 +7919,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>5</v>
@@ -7972,10 +7948,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -8001,10 +7977,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8030,10 +8006,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8059,10 +8035,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8088,10 +8064,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G212" t="n">
         <v>5</v>
@@ -8117,10 +8093,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8146,10 +8122,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -8175,10 +8151,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8204,10 +8180,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8233,10 +8209,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G217" t="n">
         <v>5</v>
@@ -8262,10 +8238,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8291,10 +8267,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8320,10 +8296,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8349,10 +8325,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8378,10 +8354,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8407,10 +8383,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -8436,10 +8412,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8465,10 +8441,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8494,10 +8470,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8523,10 +8499,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -8552,10 +8528,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8581,10 +8557,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8610,10 +8586,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8639,10 +8615,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8668,10 +8644,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8697,10 +8673,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8726,10 +8702,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8755,10 +8731,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8784,10 +8760,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G236" t="n">
         <v>10</v>
@@ -8871,10 +8847,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8900,10 +8876,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8929,10 +8905,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -8958,10 +8934,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -8987,10 +8963,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9016,10 +8992,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9045,10 +9021,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9074,10 +9050,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9103,10 +9079,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9132,10 +9108,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9161,10 +9137,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9190,10 +9166,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9219,10 +9195,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9248,10 +9224,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9277,10 +9253,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9306,10 +9282,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9335,10 +9311,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9364,10 +9340,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9393,10 +9369,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9422,10 +9398,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9451,10 +9427,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9480,10 +9456,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9509,10 +9485,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9538,10 +9514,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9567,10 +9543,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9596,10 +9572,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9625,10 +9601,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9654,10 +9630,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9683,10 +9659,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9712,10 +9688,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F268" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9741,10 +9717,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F269" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9770,10 +9746,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9799,10 +9775,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9828,10 +9804,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F272" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9857,10 +9833,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9886,10 +9862,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9915,10 +9891,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9944,10 +9920,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -9973,10 +9949,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F277" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10002,10 +9978,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F278" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -10031,10 +10007,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10060,10 +10036,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10089,10 +10065,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
